--- a/biology/Biochimie/Méroterpène/Méroterpène.xlsx
+++ b/biology/Biochimie/Méroterpène/Méroterpène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9roterp%C3%A8ne</t>
+          <t>Méroterpène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un méroterpène ou méroterpénoïde est un composé chimique possédant une structure partielle de terpénoïde, c'est-à-dire des dérivés de terpènes qui sont liés à d'autres famille des composés.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9roterp%C3%A8ne</t>
+          <t>Méroterpène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Composés terpénophénoliques
-Les composés terpénophénoliques sont des composés possédant une partie terpène et une partie phénol. Les plante des genres Humulus et Cannabis produisent des métabolites terpénophénoliques[1]. On compte parmi ces composés :
+          <t>Composés terpénophénoliques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les composés terpénophénoliques sont des composés possédant une partie terpène et une partie phénol. Les plante des genres Humulus et Cannabis produisent des métabolites terpénophénoliques. On compte parmi ces composés :
 le bakuchiol
 le ferruginol
 le mutisianthol
 le totarol
-Les composés terpénophénoliques ont aussi été isolé chez l'animal. Les méthoxyconidiol, épiconicol et didéshydroconicol, qui ont été isolé de l'ascidie Aplidium aff. densum, présentent une activité antiproliférative[2].
+Les composés terpénophénoliques ont aussi été isolé chez l'animal. Les méthoxyconidiol, épiconicol et didéshydroconicol, qui ont été isolé de l'ascidie Aplidium aff. densum, présentent une activité antiproliférative.
 </t>
         </is>
       </c>
